--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4817BC-B37A-47F3-B26E-D3E8575CEE16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03913E32-EF67-4331-BFED-333A54E1841F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,16 +29,13 @@
     <sheet name="10" sheetId="14" r:id="rId14"/>
     <sheet name="9" sheetId="15" r:id="rId15"/>
     <sheet name="8" sheetId="16" r:id="rId16"/>
-    <sheet name="7" sheetId="17" r:id="rId17"/>
-    <sheet name="6" sheetId="18" r:id="rId18"/>
-    <sheet name="5" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="41">
   <si>
     <t>Columns on Logic</t>
   </si>
@@ -120,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.01e-07
-Time:                        23:10:14   Log-Likelihood:                -303.41
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.01e-07
+Time:                        20:51:46   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -129,39 +126,39 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5980      0.412      3.883      0.000       0.789       2.406
+Ones                  1.1282      0.375      3.011      0.003       0.392       1.864
 NEMScr               -0.0022      0.001     -1.903      0.058      -0.005    7.23e-05
 Ranking               0.0013      0.001      1.399      0.162      -0.001       0.003
 LangScr               0.0010      0.000      2.790      0.005       0.000       0.002
 MathScr              -0.0021      0.001     -3.976      0.000      -0.003      -0.001
 ScienScr          -6.391e-05      0.000     -0.155      0.877      -0.001       0.001
-SchoolRegion_1       -0.2705      0.155     -1.744      0.082      -0.575       0.034
-SchoolRegion_2       -0.1778      0.075     -2.361      0.019      -0.326      -0.030
-SchoolRegion_3       -0.0726      0.111     -0.653      0.514      -0.291       0.146
-EdTypeCode_1         -0.1246      0.106     -1.176      0.240      -0.333       0.084
-EdTypeCode_2         -0.1870      0.144     -1.299      0.195      -0.470       0.096
-SchoolType_1          0.2123      0.282      0.753      0.452      -0.342       0.766
-SchoolType_2          0.2025      0.276      0.733      0.464      -0.340       0.745
-SchoolType_3          0.0705      0.270      0.261      0.794      -0.460       0.601
-SchoolType_4          0.1444      0.267      0.541      0.589      -0.380       0.669
-MotherEd_1           -0.0977      0.088     -1.108      0.269      -0.271       0.076
-MotherEd_2           -0.0953      0.134     -0.713      0.476      -0.358       0.167
-MotherEd_3           -0.1945      0.091     -2.126      0.034      -0.374      -0.015
-MotherEd_4           -0.2870      0.114     -2.523      0.012      -0.511      -0.063
-MotherEd_5           -0.3223      0.136     -2.366      0.018      -0.590      -0.055
-MotherEd_6           -0.1123      0.101     -1.109      0.268      -0.311       0.087
-MotherEd_7           -0.2113      0.105     -2.008      0.045      -0.418      -0.005
+SchoolRegion_1        0.0927      0.169      0.549      0.583      -0.239       0.424
+SchoolRegion_2        0.2705      0.155      1.744      0.082      -0.034       0.575
+SchoolRegion_3        0.1979      0.188      1.056      0.292      -0.170       0.566
+EdTypeCode_1         -0.0624      0.111     -0.564      0.573      -0.280       0.155
+EdTypeCode_2          0.1246      0.106      1.176      0.240      -0.084       0.333
+SchoolType_1         -0.0099      0.112     -0.088      0.930      -0.229       0.209
+SchoolType_2         -0.1418      0.096     -1.474      0.141      -0.331       0.047
+SchoolType_3         -0.0679      0.091     -0.743      0.458      -0.247       0.111
+SchoolType_4         -0.2123      0.282     -0.753      0.452      -0.766       0.342
+MotherEd_1            0.0757      0.102      0.743      0.458      -0.125       0.276
+MotherEd_2            0.0925      0.088      1.048      0.295      -0.081       0.266
+MotherEd_3            0.1918      0.131      1.466      0.143      -0.065       0.449
+MotherEd_4            0.1893      0.085      2.216      0.027       0.021       0.357
+MotherEd_5            0.1747      0.098      1.779      0.076      -0.018       0.368
+MotherEd_6           -0.0352      0.133     -0.266      0.791      -0.296       0.225
+MotherEd_7            0.2870      0.114      2.523      0.012       0.063       0.511
 Campus_1             -0.0111      0.156     -0.071      0.943      -0.318       0.296
 PostulationType_1     0.2153      0.086      2.516      0.012       0.047       0.383
 ==============================================================================
 Omnibus:                      114.631   Durbin-Watson:                   1.889
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.966
 Skew:                           0.723   Prob(JB):                     4.74e-15
-Kurtosis:                       2.075   Cond. No.                     4.07e+04
+Kurtosis:                       2.075   Cond. No.                     2.88e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 4.07e+04. This might indicate that there are
+[2] The condition number is large, 2.88e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -170,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.09e-07
-Time:                        23:10:14   Log-Likelihood:                -303.41
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.09e-07
+Time:                        20:51:46   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -179,38 +176,38 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5931      0.406      3.929      0.000       0.796       2.390
+Ones                  1.1145      0.322      3.467      0.001       0.483       1.746
 NEMScr               -0.0022      0.001     -1.913      0.056      -0.005    5.98e-05
 Ranking               0.0013      0.001      1.409      0.159      -0.001       0.003
 LangScr               0.0010      0.000      2.799      0.005       0.000       0.002
 MathScr              -0.0021      0.001     -3.986      0.000      -0.003      -0.001
 ScienScr          -6.406e-05      0.000     -0.156      0.876      -0.001       0.001
-SchoolRegion_1       -0.2794      0.091     -3.073      0.002      -0.458      -0.101
-SchoolRegion_2       -0.1758      0.070     -2.527      0.012      -0.312      -0.039
-SchoolRegion_3       -0.0706      0.107     -0.657      0.512      -0.282       0.141
-EdTypeCode_1         -0.1235      0.105     -1.179      0.239      -0.329       0.082
-EdTypeCode_2         -0.1865      0.144     -1.298      0.195      -0.469       0.096
-SchoolType_1          0.2114      0.281      0.751      0.453      -0.341       0.764
-SchoolType_2          0.2015      0.276      0.731      0.465      -0.340       0.743
-SchoolType_3          0.0701      0.270      0.260      0.795      -0.460       0.600
-SchoolType_4          0.1440      0.267      0.540      0.589      -0.380       0.668
-MotherEd_1           -0.0976      0.088     -1.108      0.268      -0.271       0.075
-MotherEd_2           -0.0948      0.133     -0.711      0.477      -0.357       0.167
-MotherEd_3           -0.1945      0.091     -2.128      0.034      -0.374      -0.015
-MotherEd_4           -0.2871      0.114     -2.526      0.012      -0.510      -0.064
-MotherEd_5           -0.3220      0.136     -2.367      0.018      -0.589      -0.055
-MotherEd_6           -0.1123      0.101     -1.110      0.268      -0.311       0.086
-MotherEd_7           -0.2114      0.105     -2.011      0.045      -0.418      -0.005
+SchoolRegion_1        0.1036      0.068      1.518      0.130      -0.030       0.238
+SchoolRegion_2        0.2794      0.091      3.073      0.002       0.101       0.458
+SchoolRegion_3        0.2089      0.107      1.950      0.052      -0.002       0.419
+EdTypeCode_1         -0.0630      0.110     -0.571      0.568      -0.280       0.154
+EdTypeCode_2          0.1235      0.105      1.179      0.239      -0.082       0.329
+SchoolType_1         -0.0099      0.111     -0.089      0.929      -0.229       0.209
+SchoolType_2         -0.1413      0.096     -1.474      0.141      -0.330       0.047
+SchoolType_3         -0.0675      0.091     -0.741      0.459      -0.246       0.111
+SchoolType_4         -0.2114      0.281     -0.751      0.453      -0.764       0.341
+MotherEd_1            0.0757      0.102      0.743      0.458      -0.124       0.276
+MotherEd_2            0.0926      0.088      1.050      0.294      -0.081       0.266
+MotherEd_3            0.1923      0.130      1.475      0.141      -0.064       0.448
+MotherEd_4            0.1895      0.085      2.221      0.027       0.022       0.357
+MotherEd_5            0.1749      0.098      1.783      0.075      -0.018       0.368
+MotherEd_6           -0.0349      0.132     -0.264      0.792      -0.295       0.225
+MotherEd_7            0.2871      0.114      2.526      0.012       0.064       0.510
 PostulationType_1     0.2154      0.085      2.521      0.012       0.048       0.383
 ==============================================================================
 Omnibus:                      114.718   Durbin-Watson:                   1.889
 Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.009
 Skew:                           0.723   Prob(JB):                     4.64e-15
-Kurtosis:                       2.074   Cond. No.                     4.07e+04
+Kurtosis:                       2.074   Cond. No.                     2.22e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 4.07e+04. This might indicate that there are
+[2] The condition number is large, 2.22e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -218,9 +215,9 @@
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
-Method:                 Least Squares   F-statistic:                     3.674
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.07e-07
-Time:                        23:10:14   Log-Likelihood:                -303.42
+Method:                 Least Squares   F-statistic:                     3.675
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-07
+Time:                        20:51:46   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -228,47 +225,47 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5896      0.404      3.930      0.000       0.795       2.384
-NEMScr               -0.0022      0.001     -1.912      0.056      -0.005    6.11e-05
-Ranking               0.0013      0.001      1.405      0.161      -0.001       0.003
-LangScr               0.0010      0.000      2.845      0.005       0.000       0.002
-MathScr              -0.0021      0.000     -4.433      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2799      0.091     -3.083      0.002      -0.458      -0.102
-SchoolRegion_2       -0.1758      0.069     -2.529      0.012      -0.312      -0.039
-SchoolRegion_3       -0.0704      0.107     -0.656      0.512      -0.281       0.141
-EdTypeCode_1         -0.1246      0.104     -1.194      0.233      -0.330       0.080
-EdTypeCode_2         -0.1879      0.143     -1.312      0.190      -0.469       0.093
-SchoolType_1          0.2086      0.281      0.744      0.457      -0.343       0.760
-SchoolType_2          0.1993      0.275      0.725      0.469      -0.341       0.739
-SchoolType_3          0.0688      0.269      0.255      0.799      -0.461       0.598
-SchoolType_4          0.1427      0.266      0.536      0.592      -0.380       0.666
-MotherEd_1           -0.0987      0.088     -1.125      0.261      -0.271       0.074
-MotherEd_2           -0.0960      0.133     -0.722      0.470      -0.357       0.165
-MotherEd_3           -0.1953      0.091     -2.142      0.033      -0.374      -0.016
-MotherEd_4           -0.2880      0.113     -2.540      0.011      -0.511      -0.065
-MotherEd_5           -0.3238      0.135     -2.391      0.017      -0.590      -0.058
-MotherEd_6           -0.1134      0.101     -1.125      0.261      -0.311       0.085
-MotherEd_7           -0.2127      0.105     -2.032      0.043      -0.418      -0.007
-PostulationType_1     0.2155      0.085      2.524      0.012       0.048       0.383
-==============================================================================
-Omnibus:                      114.688   Durbin-Watson:                   1.890
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.957
-Skew:                           0.723   Prob(JB):                     4.76e-15
-Kurtosis:                       2.074   Cond. No.                     3.65e+04
+Ones                  1.1086      0.314      3.528      0.000       0.491       1.726
+NEMScr               -0.0022      0.001     -1.919      0.056      -0.005     5.3e-05
+Ranking               0.0013      0.001      1.412      0.159      -0.001       0.003
+LangScr               0.0010      0.000      2.801      0.005       0.000       0.002
+MathScr              -0.0021      0.001     -3.989      0.000      -0.003      -0.001
+ScienScr          -6.291e-05      0.000     -0.153      0.878      -0.001       0.001
+SchoolRegion_1        0.1043      0.068      1.539      0.124      -0.029       0.237
+SchoolRegion_2        0.2796      0.091      3.079      0.002       0.101       0.458
+SchoolRegion_3        0.2099      0.106      1.973      0.049       0.001       0.419
+EdTypeCode_1         -0.0630      0.110     -0.572      0.568      -0.279       0.153
+EdTypeCode_2          0.1228      0.104      1.177      0.240      -0.082       0.328
+SchoolType_2         -0.1353      0.068     -1.998      0.046      -0.268      -0.002
+SchoolType_3         -0.0614      0.060     -1.029      0.304      -0.179       0.056
+SchoolType_4         -0.2052      0.272     -0.754      0.451      -0.740       0.330
+MotherEd_1            0.0753      0.102      0.741      0.459      -0.124       0.275
+MotherEd_2            0.0924      0.088      1.050      0.294      -0.081       0.265
+MotherEd_3            0.1917      0.130      1.474      0.141      -0.064       0.447
+MotherEd_4            0.1893      0.085      2.221      0.027       0.022       0.357
+MotherEd_5            0.1748      0.098      1.784      0.075      -0.018       0.367
+MotherEd_6           -0.0347      0.132     -0.262      0.793      -0.294       0.225
+MotherEd_7            0.2868      0.113      2.527      0.012       0.064       0.510
+PostulationType_1     0.2155      0.085      2.525      0.012       0.048       0.383
+==============================================================================
+Omnibus:                      114.797   Durbin-Watson:                   1.889
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.993
+Skew:                           0.723   Prob(JB):                     4.68e-15
+Kurtosis:                       2.074   Cond. No.                     2.15e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 3.65e+04. This might indicate that there are
+[2] The condition number is large, 2.15e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.130
-Model:                            OLS   Adj. R-squared:                  0.096
-Method:                 Least Squares   F-statistic:                     3.862
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.40e-08
-Time:                        23:10:14   Log-Likelihood:                -303.46
+Model:                            OLS   Adj. R-squared:                  0.097
+Method:                 Least Squares   F-statistic:                     3.865
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.28e-08
+Time:                        20:51:47   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -276,171 +273,171 @@
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.6555      0.311      5.321      0.000       1.044       2.267
-NEMScr               -0.0022      0.001     -1.901      0.058      -0.004    7.41e-05
-Ranking               0.0013      0.001      1.391      0.165      -0.001       0.003
-LangScr               0.0010      0.000      2.839      0.005       0.000       0.002
-MathScr              -0.0021      0.000     -4.432      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2801      0.091     -3.089      0.002      -0.458      -0.102
-SchoolRegion_2       -0.1760      0.069     -2.536      0.012      -0.312      -0.040
-SchoolRegion_3       -0.0726      0.107     -0.680      0.497      -0.283       0.137
-EdTypeCode_1         -0.1214      0.104     -1.173      0.241      -0.325       0.082
-EdTypeCode_2         -0.1914      0.142     -1.344      0.179      -0.471       0.088
-SchoolType_1          0.1412      0.095      1.486      0.138      -0.045       0.328
-SchoolType_2          0.1321      0.080      1.652      0.099      -0.025       0.289
-SchoolType_4          0.0758      0.046      1.643      0.101      -0.015       0.166
-MotherEd_1           -0.0993      0.088     -1.134      0.257      -0.272       0.073
-MotherEd_2           -0.0962      0.133     -0.724      0.469      -0.357       0.165
-MotherEd_3           -0.1962      0.091     -2.156      0.032      -0.375      -0.017
-MotherEd_4           -0.2883      0.113     -2.544      0.011      -0.511      -0.066
-MotherEd_5           -0.3236      0.135     -2.392      0.017      -0.589      -0.058
-MotherEd_6           -0.1134      0.101     -1.126      0.261      -0.311       0.084
-MotherEd_7           -0.2129      0.105     -2.036      0.042      -0.418      -0.007
-PostulationType_1     0.2145      0.085      2.518      0.012       0.047       0.382
-==============================================================================
-Omnibus:                      114.864   Durbin-Watson:                   1.892
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.982
-Skew:                           0.723   Prob(JB):                     4.70e-15
-Kurtosis:                       2.074   Cond. No.                     1.92e+04
+Ones                  1.1002      0.309      3.560      0.000       0.493       1.707
+NEMScr               -0.0022      0.001     -1.918      0.056      -0.005    5.44e-05
+Ranking               0.0013      0.001      1.408      0.160      -0.001       0.003
+LangScr               0.0010      0.000      2.847      0.005       0.000       0.002
+MathScr              -0.0021      0.000     -4.437      0.000      -0.003      -0.001
+SchoolRegion_1        0.1048      0.068      1.549      0.122      -0.028       0.238
+SchoolRegion_2        0.2801      0.091      3.089      0.002       0.102       0.458
+SchoolRegion_3        0.2105      0.106      1.982      0.048       0.002       0.419
+EdTypeCode_1         -0.0633      0.110     -0.575      0.565      -0.279       0.153
+EdTypeCode_2          0.1239      0.104      1.192      0.234      -0.080       0.328
+SchoolType_2         -0.1342      0.067     -1.995      0.047      -0.266      -0.002
+SchoolType_3         -0.0601      0.059     -1.018      0.309      -0.176       0.056
+SchoolType_4         -0.2027      0.271     -0.747      0.456      -0.736       0.331
+MotherEd_1            0.0749      0.102      0.738      0.461      -0.125       0.274
+MotherEd_2            0.0926      0.088      1.052      0.293      -0.080       0.265
+MotherEd_3            0.1914      0.130      1.473      0.141      -0.064       0.447
+MotherEd_4            0.1891      0.085      2.221      0.027       0.022       0.356
+MotherEd_5            0.1746      0.098      1.784      0.075      -0.018       0.367
+MotherEd_6           -0.0355      0.132     -0.269      0.788      -0.295       0.224
+MotherEd_7            0.2877      0.113      2.541      0.011       0.065       0.510
+PostulationType_1     0.2156      0.085      2.528      0.012       0.048       0.383
+==============================================================================
+Omnibus:                      114.765   Durbin-Watson:                   1.890
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.943
+Skew:                           0.723   Prob(JB):                     4.79e-15
+Kurtosis:                       2.074   Cond. No.                     1.90e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.92e+04. This might indicate that there are
+[2] The condition number is large, 1.9e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.129
-Model:                            OLS   Adj. R-squared:                  0.097
-Method:                 Least Squares   F-statistic:                     4.045
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.12e-08
-Time:                        23:10:14   Log-Likelihood:                -303.70
-No. Observations:                 537   AIC:                             647.4
-Df Residuals:                     517   BIC:                             733.1
+Dep. Variable:               Desertor   R-squared:                       0.130
+Model:                            OLS   Adj. R-squared:                  0.098
+Method:                 Least Squares   F-statistic:                     4.072
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.61e-08
+Time:                        20:51:47   Log-Likelihood:                -303.46
+No. Observations:                 537   AIC:                             646.9
+Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.6359      0.310      5.283      0.000       1.028       2.244
-NEMScr               -0.0022      0.001     -1.876      0.061      -0.004       0.000
-Ranking               0.0013      0.001      1.367      0.172      -0.001       0.003
-LangScr               0.0010      0.000      2.819      0.005       0.000       0.002
-MathScr              -0.0021      0.000     -4.457      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2537      0.082     -3.097      0.002      -0.415      -0.093
-SchoolRegion_2       -0.1486      0.056     -2.632      0.009      -0.260      -0.038
-EdTypeCode_1         -0.1227      0.103     -1.186      0.236      -0.326       0.081
-EdTypeCode_2         -0.1925      0.142     -1.352      0.177      -0.472       0.087
-SchoolType_1          0.1402      0.095      1.476      0.140      -0.046       0.327
-SchoolType_2          0.1378      0.080      1.733      0.084      -0.018       0.294
-SchoolType_4          0.0774      0.046      1.681      0.093      -0.013       0.168
-MotherEd_1           -0.1011      0.088     -1.154      0.249      -0.273       0.071
-MotherEd_2           -0.0947      0.133     -0.714      0.476      -0.356       0.166
-MotherEd_3           -0.1952      0.091     -2.146      0.032      -0.374      -0.016
-MotherEd_4           -0.2888      0.113     -2.550      0.011      -0.511      -0.066
-MotherEd_5           -0.3248      0.135     -2.402      0.017      -0.590      -0.059
-MotherEd_6           -0.1142      0.101     -1.135      0.257      -0.312       0.084
-MotherEd_7           -0.2129      0.105     -2.037      0.042      -0.418      -0.008
-PostulationType_1     0.2135      0.085      2.507      0.012       0.046       0.381
-==============================================================================
-Omnibus:                      114.644   Durbin-Watson:                   1.894
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.107
-Skew:                           0.724   Prob(JB):                     4.42e-15
-Kurtosis:                       2.075   Cond. No.                     1.92e+04
+Ones                  1.0854      0.304      3.572      0.000       0.488       1.682
+NEMScr               -0.0022      0.001     -1.914      0.056      -0.004    5.82e-05
+Ranking               0.0013      0.001      1.408      0.160      -0.001       0.003
+LangScr               0.0010      0.000      2.843      0.005       0.000       0.002
+MathScr              -0.0021      0.000     -4.440      0.000      -0.003      -0.001
+SchoolRegion_1        0.1057      0.067      1.566      0.118      -0.027       0.238
+SchoolRegion_2        0.2808      0.091      3.101      0.002       0.103       0.459
+SchoolRegion_3        0.2109      0.106      1.988      0.047       0.003       0.419
+EdTypeCode_1         -0.0642      0.110     -0.585      0.559      -0.280       0.152
+EdTypeCode_2          0.1241      0.104      1.195      0.233      -0.080       0.328
+SchoolType_2         -0.1347      0.067     -2.006      0.045      -0.267      -0.003
+SchoolType_3         -0.0601      0.059     -1.020      0.308      -0.176       0.056
+SchoolType_4         -0.2024      0.271     -0.746      0.456      -0.735       0.330
+MotherEd_1            0.0876      0.090      0.974      0.330      -0.089       0.264
+MotherEd_2            0.1050      0.075      1.401      0.162      -0.042       0.252
+MotherEd_3            0.2040      0.121      1.683      0.093      -0.034       0.442
+MotherEd_4            0.2015      0.072      2.816      0.005       0.061       0.342
+MotherEd_5            0.1872      0.086      2.181      0.030       0.019       0.356
+MotherEd_7            0.2999      0.104      2.893      0.004       0.096       0.504
+PostulationType_1     0.2154      0.085      2.528      0.012       0.048       0.383
+==============================================================================
+Omnibus:                      114.283   Durbin-Watson:                   1.890
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.024
+Skew:                           0.724   Prob(JB):                     4.60e-15
+Kurtosis:                       2.076   Cond. No.                     1.83e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.92e+04. This might indicate that there are
+[2] The condition number is large, 1.83e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.129
-Model:                            OLS   Adj. R-squared:                  0.098
-Method:                 Least Squares   F-statistic:                     4.245
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.79e-08
-Time:                        23:10:14   Log-Likelihood:                -303.96
-No. Observations:                 537   AIC:                             645.9
-Df Residuals:                     518   BIC:                             727.4
+Dep. Variable:               Desertor   R-squared:                       0.130
+Model:                            OLS   Adj. R-squared:                  0.099
+Method:                 Least Squares   F-statistic:                     4.285
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.40e-08
+Time:                        20:51:47   Log-Likelihood:                -303.64
+No. Observations:                 537   AIC:                             645.3
+Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5863      0.302      5.260      0.000       0.994       2.179
-NEMScr               -0.0022      0.001     -1.883      0.060      -0.004    9.39e-05
-Ranking               0.0013      0.001      1.395      0.164      -0.001       0.003
-LangScr               0.0010      0.000      2.789      0.005       0.000       0.002
-MathScr              -0.0021      0.000     -4.420      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2555      0.082     -3.122      0.002      -0.416      -0.095
-SchoolRegion_2       -0.1486      0.056     -2.634      0.009      -0.259      -0.038
-EdTypeCode_1         -0.1233      0.103     -1.193      0.234      -0.326       0.080
-EdTypeCode_2         -0.1975      0.142     -1.390      0.165      -0.477       0.082
-SchoolType_1          0.1415      0.095      1.491      0.137      -0.045       0.328
-SchoolType_2          0.1373      0.079      1.728      0.085      -0.019       0.293
-SchoolType_4          0.0745      0.046      1.624      0.105      -0.016       0.165
-MotherEd_1           -0.0655      0.072     -0.910      0.363      -0.207       0.076
-MotherEd_3           -0.1589      0.075     -2.108      0.036      -0.307      -0.011
-MotherEd_4           -0.2524      0.101     -2.497      0.013      -0.451      -0.054
-MotherEd_5           -0.2875      0.125     -2.306      0.022      -0.532      -0.043
-MotherEd_6           -0.0786      0.087     -0.900      0.369      -0.250       0.093
-MotherEd_7           -0.1766      0.091     -1.935      0.053      -0.356       0.003
-PostulationType_1     0.2131      0.085      2.503      0.013       0.046       0.380
-==============================================================================
-Omnibus:                      114.184   Durbin-Watson:                   1.894
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.164
-Skew:                           0.725   Prob(JB):                     4.29e-15
-Kurtosis:                       2.076   Cond. No.                     1.82e+04
+Ones                  1.0742      0.303      3.544      0.000       0.479       1.670
+NEMScr               -0.0021      0.001     -1.845      0.066      -0.004       0.000
+Ranking               0.0012      0.001      1.323      0.186      -0.001       0.003
+LangScr               0.0010      0.000      2.835      0.005       0.000       0.002
+MathScr              -0.0021      0.000     -4.417      0.000      -0.003      -0.001
+SchoolRegion_1        0.1037      0.067      1.539      0.124      -0.029       0.236
+SchoolRegion_2        0.2784      0.090      3.079      0.002       0.101       0.456
+SchoolRegion_3        0.2100      0.106      1.980      0.048       0.002       0.418
+EdTypeCode_2          0.1308      0.103      1.268      0.206      -0.072       0.333
+SchoolType_2         -0.1357      0.067     -2.022      0.044      -0.267      -0.004
+SchoolType_3         -0.0629      0.059     -1.071      0.285      -0.178       0.053
+SchoolType_4         -0.2412      0.263     -0.918      0.359      -0.758       0.275
+MotherEd_1            0.0886      0.090      0.986      0.325      -0.088       0.265
+MotherEd_2            0.1050      0.075      1.402      0.161      -0.042       0.252
+MotherEd_3            0.2002      0.121      1.656      0.098      -0.037       0.438
+MotherEd_4            0.2030      0.071      2.841      0.005       0.063       0.343
+MotherEd_5            0.1899      0.086      2.216      0.027       0.022       0.358
+MotherEd_7            0.3005      0.104      2.900      0.004       0.097       0.504
+PostulationType_1     0.2169      0.085      2.548      0.011       0.050       0.384
+==============================================================================
+Omnibus:                      114.772   Durbin-Watson:                   1.882
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.551
+Skew:                           0.720   Prob(JB):                     5.83e-15
+Kurtosis:                       2.073   Cond. No.                     1.83e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.82e+04. This might indicate that there are
+[2] The condition number is large, 1.83e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.127
-Model:                            OLS   Adj. R-squared:                  0.099
-Method:                 Least Squares   F-statistic:                     4.449
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.14e-08
-Time:                        23:10:14   Log-Likelihood:                -304.38
-No. Observations:                 537   AIC:                             644.8
-Df Residuals:                     519   BIC:                             721.9
+Dep. Variable:               Desertor   R-squared:                       0.128
+Model:                            OLS   Adj. R-squared:                  0.100
+Method:                 Least Squares   F-statistic:                     4.489
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.96e-09
+Time:                        20:51:47   Log-Likelihood:                -304.08
+No. Observations:                 537   AIC:                             644.2
+Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5693      0.301      5.214      0.000       0.978       2.161
-NEMScr               -0.0021      0.001     -1.830      0.068      -0.004       0.000
-Ranking               0.0013      0.001      1.347      0.179      -0.001       0.003
-LangScr               0.0009      0.000      2.712      0.007       0.000       0.002
-MathScr              -0.0021      0.000     -4.497      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2572      0.082     -3.144      0.002      -0.418      -0.096
-SchoolRegion_2       -0.1476      0.056     -2.616      0.009      -0.258      -0.037
-EdTypeCode_1         -0.1297      0.103     -1.258      0.209      -0.332       0.073
-EdTypeCode_2         -0.1968      0.142     -1.385      0.167      -0.476       0.082
-SchoolType_1          0.1479      0.095      1.563      0.119      -0.038       0.334
-SchoolType_2          0.1493      0.078      1.905      0.057      -0.005       0.303
-SchoolType_4          0.0798      0.045      1.756      0.080      -0.010       0.169
-MotherEd_1           -0.0217      0.053     -0.409      0.682      -0.126       0.082
-MotherEd_3           -0.1163      0.059     -1.983      0.048      -0.232      -0.001
-MotherEd_4           -0.2097      0.089     -2.350      0.019      -0.385      -0.034
-MotherEd_5           -0.2432      0.115     -2.124      0.034      -0.468      -0.018
-MotherEd_7           -0.1313      0.076     -1.726      0.085      -0.281       0.018
-PostulationType_1     0.2123      0.085      2.495      0.013       0.045       0.379
-==============================================================================
-Omnibus:                      115.247   Durbin-Watson:                   1.888
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.097
-Skew:                           0.724   Prob(JB):                     4.44e-15
-Kurtosis:                       2.073   Cond. No.                     1.81e+04
+Ones                  1.0676      0.303      3.524      0.000       0.472       1.663
+NEMScr               -0.0020      0.001     -1.751      0.081      -0.004       0.000
+Ranking               0.0011      0.001      1.213      0.226      -0.001       0.003
+LangScr               0.0010      0.000      2.801      0.005       0.000       0.002
+MathScr              -0.0021      0.000     -4.399      0.000      -0.003      -0.001
+SchoolRegion_1        0.1020      0.067      1.515      0.130      -0.030       0.234
+SchoolRegion_2        0.2778      0.090      3.073      0.002       0.100       0.455
+SchoolRegion_3        0.2001      0.105      1.897      0.058      -0.007       0.407
+EdTypeCode_2          0.1223      0.103      1.190      0.234      -0.080       0.324
+SchoolType_2         -0.1260      0.066     -1.901      0.058      -0.256       0.004
+SchoolType_3         -0.0528      0.058     -0.914      0.361      -0.166       0.061
+MotherEd_1            0.0858      0.090      0.956      0.340      -0.091       0.262
+MotherEd_2            0.1020      0.075      1.364      0.173      -0.045       0.249
+MotherEd_3            0.1987      0.121      1.644      0.101      -0.039       0.436
+MotherEd_4            0.2006      0.071      2.810      0.005       0.060       0.341
+MotherEd_5            0.1881      0.086      2.197      0.028       0.020       0.356
+MotherEd_7            0.3012      0.104      2.908      0.004       0.098       0.505
+PostulationType_1     0.2154      0.085      2.531      0.012       0.048       0.383
+==============================================================================
+Omnibus:                      116.832   Durbin-Watson:                   1.888
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.414
+Skew:                           0.716   Prob(JB):                     6.24e-15
+Kurtosis:                       2.067   Cond. No.                     1.83e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.81e+04. This might indicate that there are
+[2] The condition number is large, 1.83e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
@@ -448,38 +445,38 @@
 ==============================================================================
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
-Method:                 Least Squares   F-statistic:                     4.724
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           5.41e-09
-Time:                        23:10:14   Log-Likelihood:                -304.47
-No. Observations:                 537   AIC:                             642.9
-Df Residuals:                     520   BIC:                             715.8
+Method:                 Least Squares   F-statistic:                     4.718
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.60e-09
+Time:                        20:51:47   Log-Likelihood:                -304.51
+No. Observations:                 537   AIC:                             643.0
+Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5490      0.297      5.222      0.000       0.966       2.132
-NEMScr               -0.0021      0.001     -1.815      0.070      -0.004       0.000
-Ranking               0.0012      0.001      1.326      0.185      -0.001       0.003
-LangScr               0.0009      0.000      2.725      0.007       0.000       0.002
-MathScr              -0.0022      0.000     -4.509      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2572      0.082     -3.146      0.002      -0.418      -0.097
-SchoolRegion_2       -0.1475      0.056     -2.616      0.009      -0.258      -0.037
-EdTypeCode_1         -0.1290      0.103     -1.252      0.211      -0.331       0.073
-EdTypeCode_2         -0.1958      0.142     -1.380      0.168      -0.475       0.083
-SchoolType_1          0.1465      0.094      1.551      0.122      -0.039       0.332
-SchoolType_2          0.1482      0.078      1.894      0.059      -0.006       0.302
-SchoolType_4          0.0794      0.045      1.749      0.081      -0.010       0.169
-MotherEd_3           -0.1027      0.048     -2.126      0.034      -0.198      -0.008
-MotherEd_4           -0.1960      0.083     -2.371      0.018      -0.358      -0.034
-MotherEd_5           -0.2299      0.110     -2.095      0.037      -0.445      -0.014
-MotherEd_7           -0.1181      0.069     -1.715      0.087      -0.253       0.017
-PostulationType_1     0.2205      0.083      2.669      0.008       0.058       0.383
-==============================================================================
-Omnibus:                      115.804   Durbin-Watson:                   1.889
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.104
-Skew:                           0.723   Prob(JB):                     4.42e-15
-Kurtosis:                       2.071   Cond. No.                     1.79e+04
+Ones                  1.0139      0.297      3.412      0.001       0.430       1.598
+NEMScr               -0.0020      0.001     -1.742      0.082      -0.004       0.000
+Ranking               0.0011      0.001      1.195      0.233      -0.001       0.003
+LangScr               0.0010      0.000      2.853      0.005       0.000       0.002
+MathScr              -0.0021      0.000     -4.388      0.000      -0.003      -0.001
+SchoolRegion_1        0.0999      0.067      1.485      0.138      -0.032       0.232
+SchoolRegion_2        0.2784      0.090      3.080      0.002       0.101       0.456
+SchoolRegion_3        0.1988      0.105      1.886      0.060      -0.008       0.406
+EdTypeCode_2          0.1283      0.103      1.252      0.211      -0.073       0.330
+SchoolType_2         -0.0819      0.045     -1.802      0.072      -0.171       0.007
+MotherEd_1            0.0795      0.090      0.889      0.375      -0.096       0.255
+MotherEd_2            0.1015      0.075      1.358      0.175      -0.045       0.248
+MotherEd_3            0.1938      0.121      1.605      0.109      -0.043       0.431
+MotherEd_4            0.2003      0.071      2.806      0.005       0.060       0.340
+MotherEd_5            0.1830      0.085      2.142      0.033       0.015       0.351
+MotherEd_7            0.3057      0.103      2.955      0.003       0.102       0.509
+PostulationType_1     0.2197      0.085      2.587      0.010       0.053       0.387
+==============================================================================
+Omnibus:                      123.139   Durbin-Watson:                   1.891
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.590
+Skew:                           0.712   Prob(JB):                     5.72e-15
+Kurtosis:                       2.050   Cond. No.                     1.79e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
@@ -489,408 +486,308 @@
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.124
-Model:                            OLS   Adj. R-squared:                  0.099
-Method:                 Least Squares   F-statistic:                     4.929
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.48e-09
-Time:                        23:10:14   Log-Likelihood:                -305.28
-No. Observations:                 537   AIC:                             642.6
-Df Residuals:                     521   BIC:                             711.1
+Dep. Variable:               Desertor   R-squared:                       0.125
+Model:                            OLS   Adj. R-squared:                  0.100
+Method:                 Least Squares   F-statistic:                     4.982
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.35e-09
+Time:                        20:51:47   Log-Likelihood:                -304.92
+No. Observations:                 537   AIC:                             641.8
+Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.4689      0.290      5.069      0.000       0.900       2.038
-NEMScr               -0.0024      0.001     -2.127      0.034      -0.005      -0.000
-Ranking               0.0015      0.001      1.629      0.104      -0.000       0.003
-LangScr               0.0009      0.000      2.653      0.008       0.000       0.002
-MathScr              -0.0021      0.000     -4.497      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2496      0.082     -3.060      0.002      -0.410      -0.089
-SchoolRegion_2       -0.1452      0.056     -2.577      0.010      -0.256      -0.035
-EdTypeCode_2         -0.0773      0.106     -0.731      0.465      -0.285       0.131
-SchoolType_1          0.1421      0.094      1.505      0.133      -0.043       0.328
-SchoolType_2          0.1554      0.078      1.990      0.047       0.002       0.309
-SchoolType_4          0.0787      0.045      1.732      0.084      -0.011       0.168
-MotherEd_3           -0.1046      0.048     -2.164      0.031      -0.200      -0.010
-MotherEd_4           -0.1929      0.083     -2.333      0.020      -0.355      -0.030
-MotherEd_5           -0.2275      0.110     -2.073      0.039      -0.443      -0.012
-MotherEd_7           -0.1202      0.069     -1.745      0.082      -0.256       0.015
-PostulationType_1     0.2125      0.082      2.579      0.010       0.051       0.374
-==============================================================================
-Omnibus:                      122.352   Durbin-Watson:                   1.901
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.612
-Skew:                           0.721   Prob(JB):                     3.43e-15
-Kurtosis:                       2.054   Cond. No.                     1.73e+04
+Ones                  1.0528      0.294      3.583      0.000       0.476       1.630
+NEMScr               -0.0020      0.001     -1.734      0.084      -0.004       0.000
+Ranking               0.0011      0.001      1.185      0.237      -0.001       0.003
+LangScr               0.0010      0.000      2.810      0.005       0.000       0.002
+MathScr              -0.0021      0.000     -4.363      0.000      -0.003      -0.001
+SchoolRegion_1        0.1005      0.067      1.494      0.136      -0.032       0.233
+SchoolRegion_2        0.2776      0.090      3.072      0.002       0.100       0.455
+SchoolRegion_3        0.1969      0.105      1.868      0.062      -0.010       0.404
+EdTypeCode_2          0.1244      0.102      1.215      0.225      -0.077       0.326
+SchoolType_2         -0.0772      0.045     -1.710      0.088      -0.166       0.012
+MotherEd_2            0.0625      0.060      1.033      0.302      -0.056       0.181
+MotherEd_3            0.1556      0.113      1.379      0.168      -0.066       0.377
+MotherEd_4            0.1607      0.056      2.880      0.004       0.051       0.270
+MotherEd_5            0.1424      0.072      1.973      0.049       0.001       0.284
+MotherEd_7            0.2661      0.093      2.851      0.005       0.083       0.450
+PostulationType_1     0.2199      0.085      2.590      0.010       0.053       0.387
+==============================================================================
+Omnibus:                      125.837   Durbin-Watson:                   1.892
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.034
+Skew:                           0.714   Prob(JB):                     4.58e-15
+Kurtosis:                       2.044   Cond. No.                     1.76e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.73e+04. This might indicate that there are
+[2] The condition number is large, 1.76e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.123
+Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
-Method:                 Least Squares   F-statistic:                     5.248
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.36e-09
-Time:                        23:10:14   Log-Likelihood:                -305.55
-No. Observations:                 537   AIC:                             641.1
-Df Residuals:                     522   BIC:                             705.4
+Method:                 Least Squares   F-statistic:                     5.261
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.20e-09
+Time:                        20:51:47   Log-Likelihood:                -305.47
+No. Observations:                 537   AIC:                             640.9
+Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.4522      0.289      5.029      0.000       0.885       2.019
-NEMScr               -0.0023      0.001     -2.033      0.043      -0.004    -7.6e-05
-Ranking               0.0014      0.001      1.514      0.131      -0.000       0.003
-LangScr               0.0009      0.000      2.634      0.009       0.000       0.002
-MathScr              -0.0021      0.000     -4.456      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2463      0.081     -3.026      0.003      -0.406      -0.086
-SchoolRegion_2       -0.1449      0.056     -2.573      0.010      -0.256      -0.034
-SchoolType_1          0.1438      0.094      1.523      0.128      -0.042       0.329
-SchoolType_2          0.1573      0.078      2.017      0.044       0.004       0.311
-SchoolType_4          0.0771      0.045      1.699      0.090      -0.012       0.166
-MotherEd_3           -0.1066      0.048     -2.212      0.027      -0.201      -0.012
-MotherEd_4           -0.1931      0.083     -2.337      0.020      -0.355      -0.031
-MotherEd_5           -0.2308      0.110     -2.105      0.036      -0.446      -0.015
-MotherEd_7           -0.1207      0.069     -1.753      0.080      -0.256       0.015
-PostulationType_1     0.2134      0.082      2.590      0.010       0.052       0.375
-==============================================================================
-Omnibus:                      124.161   Durbin-Watson:                   1.894
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               65.971
-Skew:                           0.714   Prob(JB):                     4.73e-15
-Kurtosis:                       2.048   Cond. No.                     1.72e+04
+Ones                  1.0790      0.293      3.686      0.000       0.504       1.654
+NEMScr               -0.0019      0.001     -1.682      0.093      -0.004       0.000
+Ranking               0.0011      0.001      1.152      0.250      -0.001       0.003
+LangScr               0.0010      0.000      2.768      0.006       0.000       0.002
+MathScr              -0.0021      0.000     -4.362      0.000      -0.003      -0.001
+SchoolRegion_1        0.1027      0.067      1.528      0.127      -0.029       0.235
+SchoolRegion_2        0.2858      0.090      3.176      0.002       0.109       0.463
+SchoolRegion_3        0.2010      0.105      1.909      0.057      -0.006       0.408
+EdTypeCode_2          0.1213      0.102      1.185      0.237      -0.080       0.322
+SchoolType_2         -0.0824      0.045     -1.836      0.067      -0.171       0.006
+MotherEd_3            0.1204      0.108      1.119      0.264      -0.091       0.332
+MotherEd_4            0.1263      0.045      2.822      0.005       0.038       0.214
+MotherEd_5            0.1094      0.065      1.690      0.092      -0.018       0.237
+MotherEd_7            0.2306      0.087      2.657      0.008       0.060       0.401
+PostulationType_1     0.2190      0.085      2.579      0.010       0.052       0.386
+==============================================================================
+Omnibus:                      128.802   Durbin-Watson:                   1.892
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               66.515
+Skew:                           0.715   Prob(JB):                     3.60e-15
+Kurtosis:                       2.037   Cond. No.                     1.76e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.72e+04. This might indicate that there are
+[2] The condition number is large, 1.76e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.120
-Model:                            OLS   Adj. R-squared:                  0.098
-Method:                 Least Squares   F-statistic:                     5.462
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.54e-09
-Time:                        23:10:14   Log-Likelihood:                -306.73
-No. Observations:                 537   AIC:                             641.5
-Df Residuals:                     523   BIC:                             701.5
+Dep. Variable:               Desertor   R-squared:                       0.122
+Model:                            OLS   Adj. R-squared:                  0.100
+Method:                 Least Squares   F-statistic:                     5.567
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.52e-09
+Time:                        20:51:47   Log-Likelihood:                -306.11
+No. Observations:                 537   AIC:                             640.2
+Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.4365      0.289      4.972      0.000       0.869       2.004
-NEMScr               -0.0006      0.000     -2.363      0.018      -0.001      -0.000
-LangScr               0.0009      0.000      2.711      0.007       0.000       0.002
-MathScr              -0.0024      0.000     -5.217      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2463      0.082     -3.022      0.003      -0.406      -0.086
-SchoolRegion_2       -0.1360      0.056     -2.424      0.016      -0.246      -0.026
-SchoolType_1          0.1425      0.095      1.508      0.132      -0.043       0.328
-SchoolType_2          0.1558      0.078      1.995      0.047       0.002       0.309
-SchoolType_4          0.0788      0.045      1.736      0.083      -0.010       0.168
-MotherEd_3           -0.1111      0.048     -2.305      0.022      -0.206      -0.016
-MotherEd_4           -0.1929      0.083     -2.331      0.020      -0.355      -0.030
-MotherEd_5           -0.2294      0.110     -2.089      0.037      -0.445      -0.014
-MotherEd_7           -0.1238      0.069     -1.796      0.073      -0.259       0.012
-PostulationType_1     0.2163      0.082      2.624      0.009       0.054       0.378
-==============================================================================
-Omnibus:                      129.233   Durbin-Watson:                   1.894
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               67.128
-Skew:                           0.720   Prob(JB):                     2.65e-15
-Kurtosis:                       2.037   Cond. No.                     1.50e+04
+Ones                  1.1204      0.290      3.857      0.000       0.550       1.691
+NEMScr               -0.0019      0.001     -1.646      0.100      -0.004       0.000
+Ranking               0.0010      0.001      1.109      0.268      -0.001       0.003
+LangScr               0.0010      0.000      2.795      0.005       0.000       0.002
+MathScr              -0.0022      0.000     -4.523      0.000      -0.003      -0.001
+SchoolRegion_1        0.1034      0.067      1.538      0.125      -0.029       0.236
+SchoolRegion_2        0.2859      0.090      3.176      0.002       0.109       0.463
+SchoolRegion_3        0.1989      0.105      1.889      0.059      -0.008       0.406
+EdTypeCode_2          0.1237      0.102      1.209      0.227      -0.077       0.325
+SchoolType_2         -0.0854      0.045     -1.906      0.057      -0.173       0.003
+MotherEd_4            0.1178      0.044      2.669      0.008       0.031       0.204
+MotherEd_5            0.1019      0.064      1.582      0.114      -0.025       0.228
+MotherEd_7            0.2217      0.086      2.565      0.011       0.052       0.392
+PostulationType_1     0.2189      0.085      2.577      0.010       0.052       0.386
+==============================================================================
+Omnibus:                      130.086   Durbin-Watson:                   1.886
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               67.197
+Skew:                           0.720   Prob(JB):                     2.56e-15
+Kurtosis:                       2.035   Cond. No.                     1.74e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.5e+04. This might indicate that there are
+[2] The condition number is large, 1.74e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.116
-Model:                            OLS   Adj. R-squared:                  0.095
-Method:                 Least Squares   F-statistic:                     5.714
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.68e-09
-Time:                        23:10:14   Log-Likelihood:                -307.89
-No. Observations:                 537   AIC:                             641.8
-Df Residuals:                     524   BIC:                             697.5
+Dep. Variable:               Desertor   R-squared:                       0.119
+Model:                            OLS   Adj. R-squared:                  0.099
+Method:                 Least Squares   F-statistic:                     5.926
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.02e-09
+Time:                        20:51:47   Log-Likelihood:                -306.74
+No. Observations:                 537   AIC:                             639.5
+Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.4668      0.289      5.083      0.000       0.900       2.034
-NEMScr               -0.0006      0.000     -2.440      0.015      -0.001      -0.000
-LangScr               0.0009      0.000      2.744      0.006       0.000       0.002
-MathScr              -0.0024      0.000     -5.265      0.000      -0.003      -0.001
-SchoolRegion_1       -0.2481      0.082     -3.041      0.002      -0.408      -0.088
-SchoolRegion_2       -0.1325      0.056     -2.361      0.019      -0.243      -0.022
-SchoolType_2          0.1325      0.077      1.729      0.084      -0.018       0.283
-SchoolType_4          0.0553      0.043      1.295      0.196      -0.029       0.139
-MotherEd_3           -0.1040      0.048     -2.167      0.031      -0.198      -0.010
-MotherEd_4           -0.1821      0.083     -2.207      0.028      -0.344      -0.020
-MotherEd_5           -0.2198      0.110     -2.003      0.046      -0.435      -0.004
-MotherEd_7           -0.1318      0.069     -1.916      0.056      -0.267       0.003
-PostulationType_1     0.2231      0.082      2.707      0.007       0.061       0.385
-==============================================================================
-Omnibus:                      138.558   Durbin-Watson:                   1.900
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               67.958
-Skew:                           0.720   Prob(JB):                     1.75e-15
-Kurtosis:                       2.017   Cond. No.                     1.50e+04
+Ones                  1.0990      0.290      3.791      0.000       0.530       1.669
+NEMScr               -0.0006      0.000     -2.445      0.015      -0.001      -0.000
+LangScr               0.0010      0.000      2.863      0.004       0.000       0.002
+MathScr              -0.0023      0.000     -5.144      0.000      -0.003      -0.001
+SchoolRegion_1        0.1112      0.067      1.661      0.097      -0.020       0.243
+SchoolRegion_2        0.2855      0.090      3.171      0.002       0.109       0.462
+SchoolRegion_3        0.2037      0.105      1.935      0.054      -0.003       0.410
+EdTypeCode_2          0.1464      0.100      1.460      0.145      -0.051       0.343
+SchoolType_2         -0.0877      0.045     -1.959      0.051      -0.176       0.000
+MotherEd_4            0.1213      0.044      2.757      0.006       0.035       0.208
+MotherEd_5            0.1042      0.064      1.617      0.106      -0.022       0.231
+MotherEd_7            0.2208      0.086      2.554      0.011       0.051       0.391
+PostulationType_1     0.2234      0.085      2.632      0.009       0.057       0.390
+==============================================================================
+Omnibus:                      133.703   Durbin-Watson:                   1.883
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               67.886
+Skew:                           0.723   Prob(JB):                     1.81e-15
+Kurtosis:                       2.028   Cond. No.                     1.51e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.5e+04. This might indicate that there are
+[2] The condition number is large, 1.51e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.113
-Model:                            OLS   Adj. R-squared:                  0.094
-Method:                 Least Squares   F-statistic:                     6.073
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           2.14e-09
-Time:                        23:10:14   Log-Likelihood:                -308.75
-No. Observations:                 537   AIC:                             641.5
-Df Residuals:                     525   BIC:                             692.9
+Dep. Variable:               Desertor   R-squared:                       0.116
+Model:                            OLS   Adj. R-squared:                  0.097
+Method:                 Least Squares   F-statistic:                     6.257
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.78e-10
+Time:                        20:51:47   Log-Likelihood:                -307.83
+No. Observations:                 537   AIC:                             639.7
+Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5311      0.284      5.383      0.000       0.972       2.090
-NEMScr               -0.0006      0.000     -2.300      0.022      -0.001    -8.8e-05
-LangScr               0.0009      0.000      2.732      0.007       0.000       0.002
-MathScr              -0.0025      0.000     -5.541      0.000      -0.003      -0.002
-SchoolRegion_1       -0.2404      0.081     -2.952      0.003      -0.400      -0.080
-SchoolRegion_2       -0.1273      0.056     -2.273      0.023      -0.237      -0.017
-SchoolType_2          0.0940      0.071      1.330      0.184      -0.045       0.233
-MotherEd_3           -0.0950      0.048     -1.998      0.046      -0.188      -0.002
-MotherEd_4           -0.1735      0.082     -2.107      0.036      -0.335      -0.012
-MotherEd_5           -0.2181      0.110     -1.986      0.047      -0.434      -0.002
-MotherEd_7           -0.1317      0.069     -1.913      0.056      -0.267       0.004
-PostulationType_1     0.2244      0.082      2.721      0.007       0.062       0.386
-==============================================================================
-Omnibus:                      135.972   Durbin-Watson:                   1.901
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               69.334
-Skew:                           0.733   Prob(JB):                     8.80e-16
-Kurtosis:                       2.025   Cond. No.                     1.47e+04
+Ones                  1.1538      0.288      4.009      0.000       0.588       1.719
+NEMScr               -0.0007      0.000     -2.487      0.013      -0.001      -0.000
+LangScr               0.0010      0.000      2.806      0.005       0.000       0.002
+MathScr              -0.0024      0.000     -5.222      0.000      -0.003      -0.001
+SchoolRegion_1        0.1049      0.067      1.570      0.117      -0.026       0.236
+SchoolRegion_2        0.2763      0.090      3.073      0.002       0.100       0.453
+SchoolRegion_3        0.1919      0.105      1.826      0.068      -0.015       0.398
+SchoolType_2         -0.0886      0.045     -1.976      0.049      -0.177      -0.001
+MotherEd_4            0.1242      0.044      2.823      0.005       0.038       0.211
+MotherEd_5            0.1013      0.064      1.572      0.117      -0.025       0.228
+MotherEd_7            0.2272      0.086      2.628      0.009       0.057       0.397
+PostulationType_1     0.2159      0.085      2.546      0.011       0.049       0.383
+==============================================================================
+Omnibus:                      142.955   Durbin-Watson:                   1.896
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               68.561
+Skew:                           0.721   Prob(JB):                     1.29e-15
+Kurtosis:                       2.008   Cond. No.                     1.50e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.47e+04. This might indicate that there are
+[2] The condition number is large, 1.5e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.110
-Model:                            OLS   Adj. R-squared:                  0.093
-Method:                 Least Squares   F-statistic:                     6.494
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           1.73e-09
-Time:                        23:10:14   Log-Likelihood:                -309.65
-No. Observations:                 537   AIC:                             641.3
-Df Residuals:                     526   BIC:                             688.5
+Dep. Variable:               Desertor   R-squared:                       0.112
+Model:                            OLS   Adj. R-squared:                  0.095
+Method:                 Least Squares   F-statistic:                     6.618
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-09
+Time:                        20:51:47   Log-Likelihood:                -309.09
+No. Observations:                 537   AIC:                             640.2
+Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5333      0.285      5.386      0.000       0.974       2.092
-NEMScr               -0.0006      0.000     -2.230      0.026      -0.001   -6.97e-05
-LangScr               0.0009      0.000      2.747      0.006       0.000       0.002
-MathScr              -0.0025      0.000     -5.572      0.000      -0.003      -0.002
-SchoolRegion_1       -0.2331      0.081     -2.867      0.004      -0.393      -0.073
-SchoolRegion_2       -0.1294      0.056     -2.310      0.021      -0.239      -0.019
-MotherEd_3           -0.0930      0.048     -1.955      0.051      -0.186       0.000
-MotherEd_4           -0.1717      0.082     -2.084      0.038      -0.333      -0.010
-MotherEd_5           -0.2200      0.110     -2.002      0.046      -0.436      -0.004
-MotherEd_7           -0.1364      0.069     -1.983      0.048      -0.272      -0.001
-PostulationType_1     0.2266      0.083      2.746      0.006       0.064       0.389
-==============================================================================
-Omnibus:                      145.676   Durbin-Watson:                   1.903
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               70.082
-Skew:                           0.732   Prob(JB):                     6.05e-16
-Kurtosis:                       2.005   Cond. No.                     1.47e+04
+Ones                  1.2135      0.286      4.248      0.000       0.652       1.775
+NEMScr               -0.0007      0.000     -2.589      0.010      -0.001      -0.000
+LangScr               0.0010      0.000      2.792      0.005       0.000       0.002
+MathScr              -0.0023      0.000     -5.091      0.000      -0.003      -0.001
+SchoolRegion_2        0.1839      0.068      2.702      0.007       0.050       0.318
+SchoolRegion_3        0.0982      0.087      1.134      0.257      -0.072       0.268
+SchoolType_2         -0.0877      0.045     -1.955      0.051      -0.176       0.000
+MotherEd_4            0.1271      0.044      2.886      0.004       0.041       0.214
+MotherEd_5            0.1023      0.065      1.585      0.113      -0.024       0.229
+MotherEd_7            0.2350      0.086      2.719      0.007       0.065       0.405
+PostulationType_1     0.2256      0.085      2.664      0.008       0.059       0.392
+==============================================================================
+Omnibus:                      139.289   Durbin-Watson:                   1.897
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               70.266
+Skew:                           0.738   Prob(JB):                     5.52e-16
+Kurtosis:                       2.019   Cond. No.                     1.48e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.47e+04. This might indicate that there are
+[2] The condition number is large, 1.48e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.103
-Model:                            OLS   Adj. R-squared:                  0.088
-Method:                 Least Squares   F-statistic:                     6.754
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.38e-09
-Time:                        23:10:14   Log-Likelihood:                -311.60
-No. Observations:                 537   AIC:                             643.2
-Df Residuals:                     527   BIC:                             686.1
+Dep. Variable:               Desertor   R-squared:                       0.110
+Model:                            OLS   Adj. R-squared:                  0.094
+Method:                 Least Squares   F-statistic:                     7.207
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.67e-10
+Time:                        20:51:47   Log-Likelihood:                -309.74
+No. Observations:                 537   AIC:                             639.5
+Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.5084      0.285      5.290      0.000       0.948       2.069
-NEMScr               -0.0006      0.000     -2.131      0.034      -0.001   -4.37e-05
-LangScr               0.0010      0.000      2.896      0.004       0.000       0.002
-MathScr              -0.0025      0.000     -5.643      0.000      -0.003      -0.002
-SchoolRegion_1       -0.2293      0.081     -2.813      0.005      -0.389      -0.069
-SchoolRegion_2       -0.1225      0.056     -2.186      0.029      -0.233      -0.012
-MotherEd_4           -0.1445      0.081     -1.776      0.076      -0.304       0.015
-MotherEd_5           -0.1919      0.109     -1.757      0.079      -0.406       0.023
-MotherEd_7           -0.1083      0.067     -1.605      0.109      -0.241       0.024
-PostulationType_1     0.1993      0.082      2.444      0.015       0.039       0.359
-==============================================================================
-Omnibus:                      151.227   Durbin-Watson:                   1.895
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               72.244
-Skew:                           0.745   Prob(JB):                     2.05e-16
-Kurtosis:                       1.997   Cond. No.                     1.47e+04
+Ones                  1.2225      0.286      4.280      0.000       0.661       1.784
+NEMScr               -0.0007      0.000     -2.544      0.011      -0.001      -0.000
+LangScr               0.0010      0.000      2.782      0.006       0.000       0.002
+MathScr              -0.0023      0.000     -5.132      0.000      -0.003      -0.001
+SchoolRegion_2        0.1783      0.068      2.626      0.009       0.045       0.312
+SchoolType_2         -0.0839      0.045     -1.875      0.061      -0.172       0.004
+MotherEd_4            0.1293      0.044      2.939      0.003       0.043       0.216
+MotherEd_5            0.1042      0.065      1.615      0.107      -0.023       0.231
+MotherEd_7            0.2342      0.086      2.709      0.007       0.064       0.404
+PostulationType_1     0.2258      0.085      2.666      0.008       0.059       0.392
+==============================================================================
+Omnibus:                      145.490   Durbin-Watson:                   1.891
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               70.704
+Skew:                           0.737   Prob(JB):                     4.43e-16
+Kurtosis:                       2.006   Cond. No.                     1.48e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.47e+04. This might indicate that there are
+[2] The condition number is large, 1.48e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
   <si>
     <t xml:space="preserve">                            OLS Regression Results                            
 ==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.099
-Model:                            OLS   Adj. R-squared:                  0.085
-Method:                 Least Squares   F-statistic:                     7.255
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.73e-09
-Time:                        23:10:14   Log-Likelihood:                -312.91
-No. Observations:                 537   AIC:                             643.8
-Df Residuals:                     528   BIC:                             682.4
-Df Model:                           8                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  1.4997      0.286      5.253      0.000       0.939       2.061
-NEMScr               -0.0005      0.000     -1.935      0.054      -0.001    7.79e-06
-LangScr               0.0010      0.000      2.957      0.003       0.000       0.002
-MathScr              -0.0026      0.000     -5.752      0.000      -0.003      -0.002
-SchoolRegion_1       -0.2373      0.081     -2.912      0.004      -0.397      -0.077
-SchoolRegion_2       -0.1274      0.056     -2.272      0.023      -0.238      -0.017
-MotherEd_4           -0.1326      0.081     -1.633      0.103      -0.292       0.027
-MotherEd_5           -0.1779      0.109     -1.632      0.103      -0.392       0.036
-PostulationType_1     0.1879      0.081      2.310      0.021       0.028       0.348
-==============================================================================
-Omnibus:                      156.594   Durbin-Watson:                   1.893
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               73.752
-Skew:                           0.754   Prob(JB):                     9.66e-17
-Kurtosis:                       1.989   Cond. No.                     1.47e+04
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.47e+04. This might indicate that there are
-strong multicollinearity or other numerical problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.094
-Model:                            OLS   Adj. R-squared:                  0.083
-Method:                 Least Squares   F-statistic:                     7.886
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.15e-09
-Time:                        23:10:14   Log-Likelihood:                -314.26
-No. Observations:                 537   AIC:                             644.5
-Df Residuals:                     529   BIC:                             678.8
+Dep. Variable:               Desertor   R-squared:                       0.101
+Model:                            OLS   Adj. R-squared:                  0.089
+Method:                 Least Squares   F-statistic:                     8.487
+Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.28e-10
+Time:                        20:51:47   Log-Likelihood:                -312.33
+No. Observations:                 537   AIC:                             640.7
+Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         
 Covariance Type:            nonrobust                                         
 =====================================================================================
                         coef    std err          t      P&gt;|t|      [0.025      0.975]
 -------------------------------------------------------------------------------------
-Ones                  1.4815      0.286      5.185      0.000       0.920       2.043
-NEMScr               -0.0005      0.000     -1.747      0.081      -0.001    5.64e-05
-LangScr               0.0010      0.000      2.877      0.004       0.000       0.002
-MathScr              -0.0026      0.000     -5.720      0.000      -0.003      -0.002
-SchoolRegion_1       -0.2434      0.082     -2.986      0.003      -0.403      -0.083
-SchoolRegion_2       -0.1266      0.056     -2.255      0.025      -0.237      -0.016
-MotherEd_4           -0.1257      0.081     -1.548      0.122      -0.285       0.034
-PostulationType_1     0.1809      0.081      2.224      0.027       0.021       0.341
-==============================================================================
-Omnibus:                      162.546   Durbin-Watson:                   1.890
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               75.099
-Skew:                           0.761   Prob(JB):                     4.92e-17
-Kurtosis:                       1.980   Cond. No.                     1.47e+04
+Ones                  1.2218      0.286      4.278      0.000       0.661       1.783
+NEMScr               -0.0006      0.000     -2.336      0.020      -0.001   -9.74e-05
+LangScr               0.0010      0.000      2.984      0.003       0.000       0.002
+MathScr              -0.0024      0.000     -5.458      0.000      -0.003      -0.002
+SchoolRegion_2        0.1739      0.068      2.556      0.011       0.040       0.308
+MotherEd_4            0.1020      0.042      2.448      0.015       0.020       0.184
+MotherEd_7            0.2104      0.086      2.456      0.014       0.042       0.379
+PostulationType_1     0.2341      0.085      2.760      0.006       0.067       0.401
+==============================================================================
+Omnibus:                      147.447   Durbin-Watson:                   1.897
+Prob(Omnibus):                  0.000   Jarque-Bera (JB):               73.833
+Skew:                           0.760   Prob(JB):                     9.28e-17
+Kurtosis:                       2.007   Cond. No.                     1.48e+04
 ==============================================================================
 Warnings:
 [1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.47e+04. This might indicate that there are
-strong multicollinearity or other numerical problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.090
-Model:                            OLS   Adj. R-squared:                  0.080
-Method:                 Least Squares   F-statistic:                     8.778
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           3.91e-09
-Time:                        23:10:14   Log-Likelihood:                -315.47
-No. Observations:                 537   AIC:                             644.9
-Df Residuals:                     530   BIC:                             674.9
-Df Model:                           6                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  1.4763      0.286      5.160      0.000       0.914       2.038
-NEMScr               -0.0004      0.000     -1.710      0.088      -0.001     6.6e-05
-LangScr               0.0010      0.000      2.853      0.005       0.000       0.002
-MathScr              -0.0025      0.000     -5.690      0.000      -0.003      -0.002
-SchoolRegion_1       -0.2462      0.082     -3.017      0.003      -0.406      -0.086
-SchoolRegion_2       -0.1288      0.056     -2.291      0.022      -0.239      -0.018
-PostulationType_1     0.1732      0.081      2.130      0.034       0.013       0.333
-==============================================================================
-Omnibus:                      168.297   Durbin-Watson:                   1.888
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               76.221
-Skew:                           0.766   Prob(JB):                     2.81e-17
-Kurtosis:                       1.972   Cond. No.                     1.47e+04
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.47e+04. This might indicate that there are
-strong multicollinearity or other numerical problems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            OLS Regression Results                            
-==============================================================================
-Dep. Variable:               Desertor   R-squared:                       0.085
-Model:                            OLS   Adj. R-squared:                  0.077
-Method:                 Least Squares   F-statistic:                     9.913
-Date:                Wed, 25 Dec 2019   Prob (F-statistic):           4.45e-09
-Time:                        23:10:14   Log-Likelihood:                -316.95
-No. Observations:                 537   AIC:                             645.9
-Df Residuals:                     531   BIC:                             671.6
-Df Model:                           5                                         
-Covariance Type:            nonrobust                                         
-=====================================================================================
-                        coef    std err          t      P&gt;|t|      [0.025      0.975]
--------------------------------------------------------------------------------------
-Ones                  1.3302      0.274      4.863      0.000       0.793       1.868
-LangScr               0.0009      0.000      2.669      0.008       0.000       0.002
-MathScr              -0.0026      0.000     -5.947      0.000      -0.004      -0.002
-SchoolRegion_1       -0.2435      0.082     -2.980      0.003      -0.404      -0.083
-SchoolRegion_2       -0.1197      0.056     -2.136      0.033      -0.230      -0.010
-PostulationType_1     0.1732      0.081      2.125      0.034       0.013       0.333
-==============================================================================
-Omnibus:                      162.906   Durbin-Watson:                   1.888
-Prob(Omnibus):                  0.000   Jarque-Bera (JB):               77.238
-Skew:                           0.777   Prob(JB):                     1.69e-17
-Kurtosis:                       1.982   Cond. No.                     1.18e+04
-==============================================================================
-Warnings:
-[1] Standard Errors assume that the covariance matrix of the errors is correctly specified.
-[2] The condition number is large, 1.18e+04. This might indicate that there are
+[2] The condition number is large, 1.48e+04. This might indicate that there are
 strong multicollinearity or other numerical problems.</t>
   </si>
 </sst>
@@ -1395,10 +1292,10 @@
     <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1414,28 +1311,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>19</v>
@@ -1475,9 +1372,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1505,13 +1402,13 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>19</v>
@@ -1551,9 +1448,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1581,10 +1478,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>19</v>
@@ -1625,7 +1522,8 @@
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1647,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>19</v>
@@ -1693,7 +1591,8 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="2"/>
@@ -1716,10 +1615,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
@@ -1759,7 +1658,8 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="2"/>
@@ -1782,16 +1682,16 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>23</v>
@@ -1822,8 +1722,8 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -1845,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>23</v>
@@ -1863,163 +1763,6 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="408" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="395.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2039,8 +1782,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="22" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="2"/>
@@ -2066,22 +1810,22 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>13</v>
@@ -2184,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>15</v>
@@ -2242,9 +1986,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2275,37 +2019,37 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>22</v>
@@ -2339,8 +2083,8 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="19" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" style="2"/>
@@ -2372,16 +2116,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>15</v>
@@ -2390,16 +2134,16 @@
         <v>16</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>22</v>
@@ -2433,9 +2177,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2466,22 +2210,22 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>18</v>
@@ -2524,9 +2268,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2557,19 +2301,19 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>18</v>
@@ -2612,9 +2356,9 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2645,16 +2389,16 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>18</v>
@@ -2697,8 +2441,8 @@
     <col min="2" max="2" width="94.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="2"/>
@@ -2730,13 +2474,13 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>18</v>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03913E32-EF67-4331-BFED-333A54E1841F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B29F5-8F63-4EA9-A0EC-B6B2AF38E6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -118,7 +118,7 @@
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.01e-07
-Time:                        20:51:46   Log-Likelihood:                -303.41
+Time:                        20:59:48   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -168,7 +168,7 @@
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.09e-07
-Time:                        20:51:46   Log-Likelihood:                -303.41
+Time:                        20:59:48   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -217,7 +217,7 @@
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-07
-Time:                        20:51:46   Log-Likelihood:                -303.41
+Time:                        20:59:48   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -265,7 +265,7 @@
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.28e-08
-Time:                        20:51:47   Log-Likelihood:                -303.43
+Time:                        20:59:48   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -312,7 +312,7 @@
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.61e-08
-Time:                        20:51:47   Log-Likelihood:                -303.46
+Time:                        20:59:48   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -358,7 +358,7 @@
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.40e-08
-Time:                        20:51:47   Log-Likelihood:                -303.64
+Time:                        20:59:48   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -403,7 +403,7 @@
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.96e-09
-Time:                        20:51:47   Log-Likelihood:                -304.08
+Time:                        20:59:48   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -447,7 +447,7 @@
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.60e-09
-Time:                        20:51:47   Log-Likelihood:                -304.51
+Time:                        20:59:48   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -490,7 +490,7 @@
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.35e-09
-Time:                        20:51:47   Log-Likelihood:                -304.92
+Time:                        20:59:48   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -532,7 +532,7 @@
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.20e-09
-Time:                        20:51:47   Log-Likelihood:                -305.47
+Time:                        20:59:48   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -573,7 +573,7 @@
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.52e-09
-Time:                        20:51:47   Log-Likelihood:                -306.11
+Time:                        20:59:48   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -613,7 +613,7 @@
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.02e-09
-Time:                        20:51:47   Log-Likelihood:                -306.74
+Time:                        20:59:48   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -652,7 +652,7 @@
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.78e-10
-Time:                        20:51:47   Log-Likelihood:                -307.83
+Time:                        20:59:48   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -690,7 +690,7 @@
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-09
-Time:                        20:51:47   Log-Likelihood:                -309.09
+Time:                        20:59:48   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -727,7 +727,7 @@
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.67e-10
-Time:                        20:51:47   Log-Likelihood:                -309.74
+Time:                        20:59:48   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -763,7 +763,7 @@
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
 Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.28e-10
-Time:                        20:51:47   Log-Likelihood:                -312.33
+Time:                        20:59:49   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B29F5-8F63-4EA9-A0EC-B6B2AF38E6EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D1D86-2556-453E-AF77-3AC5A2F6F9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           4.01e-07
-Time:                        20:59:48   Log-Likelihood:                -303.41
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.01e-07
+Time:                        16:11:18   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.09e-07
-Time:                        20:59:48   Log-Likelihood:                -303.41
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.09e-07
+Time:                        16:11:18   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-07
-Time:                        20:59:48   Log-Likelihood:                -303.41
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-07
+Time:                        16:11:18   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.28e-08
-Time:                        20:59:48   Log-Likelihood:                -303.43
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.28e-08
+Time:                        16:11:19   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.61e-08
-Time:                        20:59:48   Log-Likelihood:                -303.46
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.61e-08
+Time:                        16:11:19   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.40e-08
-Time:                        20:59:48   Log-Likelihood:                -303.64
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.40e-08
+Time:                        16:11:19   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           8.96e-09
-Time:                        20:59:48   Log-Likelihood:                -304.08
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.96e-09
+Time:                        16:11:19   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           5.60e-09
-Time:                        20:59:48   Log-Likelihood:                -304.51
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.60e-09
+Time:                        16:11:19   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           3.35e-09
-Time:                        20:59:48   Log-Likelihood:                -304.92
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.35e-09
+Time:                        16:11:19   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           2.20e-09
-Time:                        20:59:48   Log-Likelihood:                -305.47
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.20e-09
+Time:                        16:11:19   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.52e-09
-Time:                        20:59:48   Log-Likelihood:                -306.11
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.52e-09
+Time:                        16:11:19   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.02e-09
-Time:                        20:59:48   Log-Likelihood:                -306.74
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.02e-09
+Time:                        16:11:19   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           9.78e-10
-Time:                        20:59:48   Log-Likelihood:                -307.83
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.78e-10
+Time:                        16:11:19   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           1.06e-09
-Time:                        20:59:48   Log-Likelihood:                -309.09
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-09
+Time:                        16:11:19   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           6.67e-10
-Time:                        20:59:48   Log-Likelihood:                -309.74
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.67e-10
+Time:                        16:11:19   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Sat, 28 Dec 2019   Prob (F-statistic):           7.28e-10
-Time:                        20:59:49   Log-Likelihood:                -312.33
+Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.28e-10
+Time:                        16:11:19   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531D1D86-2556-453E-AF77-3AC5A2F6F9B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E642633C-30CC-4361-BAC8-DADA4F7C4624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           4.01e-07
-Time:                        16:11:18   Log-Likelihood:                -303.41
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        23:18:56   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.09e-07
-Time:                        16:11:18   Log-Likelihood:                -303.41
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        23:18:56   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-07
-Time:                        16:11:18   Log-Likelihood:                -303.41
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        23:18:56   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.28e-08
-Time:                        16:11:19   Log-Likelihood:                -303.43
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        23:18:56   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.61e-08
-Time:                        16:11:19   Log-Likelihood:                -303.46
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        23:18:56   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.40e-08
-Time:                        16:11:19   Log-Likelihood:                -303.64
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        23:18:56   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           8.96e-09
-Time:                        16:11:19   Log-Likelihood:                -304.08
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        23:18:56   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           5.60e-09
-Time:                        16:11:19   Log-Likelihood:                -304.51
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        23:18:56   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           3.35e-09
-Time:                        16:11:19   Log-Likelihood:                -304.92
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        23:18:56   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           2.20e-09
-Time:                        16:11:19   Log-Likelihood:                -305.47
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        23:18:56   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.52e-09
-Time:                        16:11:19   Log-Likelihood:                -306.11
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        23:18:56   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.02e-09
-Time:                        16:11:19   Log-Likelihood:                -306.74
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        23:18:56   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           9.78e-10
-Time:                        16:11:19   Log-Likelihood:                -307.83
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        23:18:56   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           1.06e-09
-Time:                        16:11:19   Log-Likelihood:                -309.09
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        23:18:56   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           6.67e-10
-Time:                        16:11:19   Log-Likelihood:                -309.74
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        23:18:56   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Sun, 29 Dec 2019   Prob (F-statistic):           7.28e-10
-Time:                        16:11:19   Log-Likelihood:                -312.33
+Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        23:18:56   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E642633C-30CC-4361-BAC8-DADA4F7C4624}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D54B36-85F7-475D-BB4E-EF500D81579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           4.01e-07
-Time:                        23:18:56   Log-Likelihood:                -303.41
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        20:48:49   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.09e-07
-Time:                        23:18:56   Log-Likelihood:                -303.41
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        20:48:49   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-07
-Time:                        23:18:56   Log-Likelihood:                -303.41
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        20:48:49   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.28e-08
-Time:                        23:18:56   Log-Likelihood:                -303.43
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        20:48:49   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.61e-08
-Time:                        23:18:56   Log-Likelihood:                -303.46
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        20:48:49   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.40e-08
-Time:                        23:18:56   Log-Likelihood:                -303.64
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        20:48:49   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           8.96e-09
-Time:                        23:18:56   Log-Likelihood:                -304.08
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        20:48:49   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           5.60e-09
-Time:                        23:18:56   Log-Likelihood:                -304.51
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        20:48:49   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           3.35e-09
-Time:                        23:18:56   Log-Likelihood:                -304.92
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        20:48:49   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           2.20e-09
-Time:                        23:18:56   Log-Likelihood:                -305.47
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        20:48:49   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.52e-09
-Time:                        23:18:56   Log-Likelihood:                -306.11
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        20:48:49   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.02e-09
-Time:                        23:18:56   Log-Likelihood:                -306.74
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        20:48:49   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           9.78e-10
-Time:                        23:18:56   Log-Likelihood:                -307.83
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        20:48:49   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           1.06e-09
-Time:                        23:18:56   Log-Likelihood:                -309.09
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        20:48:49   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           6.67e-10
-Time:                        23:18:56   Log-Likelihood:                -309.74
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        20:48:49   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Wed, 01 Jan 2020   Prob (F-statistic):           7.28e-10
-Time:                        23:18:56   Log-Likelihood:                -312.33
+Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        20:48:49   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D54B36-85F7-475D-BB4E-EF500D81579A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092A8BA-A040-4DEA-B6BD-B2D1069CE1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           4.01e-07
-Time:                        20:48:49   Log-Likelihood:                -303.41
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        21:22:27   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.09e-07
-Time:                        20:48:49   Log-Likelihood:                -303.41
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        21:22:27   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-07
-Time:                        20:48:49   Log-Likelihood:                -303.41
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        21:22:27   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.28e-08
-Time:                        20:48:49   Log-Likelihood:                -303.43
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        21:22:27   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.61e-08
-Time:                        20:48:49   Log-Likelihood:                -303.46
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        21:22:27   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.40e-08
-Time:                        20:48:49   Log-Likelihood:                -303.64
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        21:22:27   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           8.96e-09
-Time:                        20:48:49   Log-Likelihood:                -304.08
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        21:22:27   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           5.60e-09
-Time:                        20:48:49   Log-Likelihood:                -304.51
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        21:22:28   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           3.35e-09
-Time:                        20:48:49   Log-Likelihood:                -304.92
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        21:22:28   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           2.20e-09
-Time:                        20:48:49   Log-Likelihood:                -305.47
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        21:22:28   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.52e-09
-Time:                        20:48:49   Log-Likelihood:                -306.11
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        21:22:28   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.02e-09
-Time:                        20:48:49   Log-Likelihood:                -306.74
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        21:22:28   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           9.78e-10
-Time:                        20:48:49   Log-Likelihood:                -307.83
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        21:22:28   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           1.06e-09
-Time:                        20:48:49   Log-Likelihood:                -309.09
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        21:22:28   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           6.67e-10
-Time:                        20:48:49   Log-Likelihood:                -309.74
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        21:22:28   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Thu, 02 Jan 2020   Prob (F-statistic):           7.28e-10
-Time:                        20:48:49   Log-Likelihood:                -312.33
+Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        21:22:28   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/backwardElimination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3092A8BA-A040-4DEA-B6BD-B2D1069CE1A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C32572F-DDD8-4F1D-84FB-6AB339311DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="23" sheetId="1" r:id="rId1"/>
@@ -117,8 +117,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.091
 Method:                 Least Squares   F-statistic:                     3.343
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           4.01e-07
-Time:                        21:22:27   Log-Likelihood:                -303.41
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           4.01e-07
+Time:                        19:07:32   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             654.8
 Df Residuals:                     513   BIC:                             757.7
 Df Model:                          23                                         
@@ -167,8 +167,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.093
 Method:                 Least Squares   F-statistic:                     3.502
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.09e-07
-Time:                        21:22:27   Log-Likelihood:                -303.41
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.09e-07
+Time:                        19:07:32   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             652.8
 Df Residuals:                     514   BIC:                             751.4
 Df Model:                          22                                         
@@ -216,8 +216,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     3.675
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-07
-Time:                        21:22:27   Log-Likelihood:                -303.41
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.06e-07
+Time:                        19:07:32   Log-Likelihood:                -303.41
 No. Observations:                 537   AIC:                             650.8
 Df Residuals:                     515   BIC:                             745.1
 Df Model:                          21                                         
@@ -264,8 +264,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     3.865
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.28e-08
-Time:                        21:22:27   Log-Likelihood:                -303.43
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.28e-08
+Time:                        19:07:32   Log-Likelihood:                -303.43
 No. Observations:                 537   AIC:                             648.9
 Df Residuals:                     516   BIC:                             738.9
 Df Model:                          20                                         
@@ -311,8 +311,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.098
 Method:                 Least Squares   F-statistic:                     4.072
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.61e-08
-Time:                        21:22:27   Log-Likelihood:                -303.46
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.61e-08
+Time:                        19:07:32   Log-Likelihood:                -303.46
 No. Observations:                 537   AIC:                             646.9
 Df Residuals:                     517   BIC:                             732.6
 Df Model:                          19                                         
@@ -357,8 +357,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.130
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     4.285
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.40e-08
-Time:                        21:22:27   Log-Likelihood:                -303.64
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.40e-08
+Time:                        19:07:32   Log-Likelihood:                -303.64
 No. Observations:                 537   AIC:                             645.3
 Df Residuals:                     518   BIC:                             726.7
 Df Model:                          18                                         
@@ -402,8 +402,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.128
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.489
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           8.96e-09
-Time:                        21:22:27   Log-Likelihood:                -304.08
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           8.96e-09
+Time:                        19:07:32   Log-Likelihood:                -304.08
 No. Observations:                 537   AIC:                             644.2
 Df Residuals:                     519   BIC:                             721.3
 Df Model:                          17                                         
@@ -446,8 +446,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.127
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.718
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           5.60e-09
-Time:                        21:22:28   Log-Likelihood:                -304.51
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           5.60e-09
+Time:                        19:07:32   Log-Likelihood:                -304.51
 No. Observations:                 537   AIC:                             643.0
 Df Residuals:                     520   BIC:                             715.9
 Df Model:                          16                                         
@@ -489,8 +489,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.125
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     4.982
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           3.35e-09
-Time:                        21:22:28   Log-Likelihood:                -304.92
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           3.35e-09
+Time:                        19:07:32   Log-Likelihood:                -304.92
 No. Observations:                 537   AIC:                             641.8
 Df Residuals:                     521   BIC:                             710.4
 Df Model:                          15                                         
@@ -531,8 +531,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.124
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.261
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           2.20e-09
-Time:                        21:22:28   Log-Likelihood:                -305.47
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           2.20e-09
+Time:                        19:07:32   Log-Likelihood:                -305.47
 No. Observations:                 537   AIC:                             640.9
 Df Residuals:                     522   BIC:                             705.2
 Df Model:                          14                                         
@@ -572,8 +572,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.122
 Model:                            OLS   Adj. R-squared:                  0.100
 Method:                 Least Squares   F-statistic:                     5.567
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.52e-09
-Time:                        21:22:28   Log-Likelihood:                -306.11
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.52e-09
+Time:                        19:07:32   Log-Likelihood:                -306.11
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     523   BIC:                             700.2
 Df Model:                          13                                         
@@ -612,8 +612,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.119
 Model:                            OLS   Adj. R-squared:                  0.099
 Method:                 Least Squares   F-statistic:                     5.926
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.02e-09
-Time:                        21:22:28   Log-Likelihood:                -306.74
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.02e-09
+Time:                        19:07:32   Log-Likelihood:                -306.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     524   BIC:                             695.2
 Df Model:                          12                                         
@@ -651,8 +651,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.116
 Model:                            OLS   Adj. R-squared:                  0.097
 Method:                 Least Squares   F-statistic:                     6.257
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           9.78e-10
-Time:                        21:22:28   Log-Likelihood:                -307.83
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           9.78e-10
+Time:                        19:07:32   Log-Likelihood:                -307.83
 No. Observations:                 537   AIC:                             639.7
 Df Residuals:                     525   BIC:                             691.1
 Df Model:                          11                                         
@@ -689,8 +689,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.112
 Model:                            OLS   Adj. R-squared:                  0.095
 Method:                 Least Squares   F-statistic:                     6.618
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           1.06e-09
-Time:                        21:22:28   Log-Likelihood:                -309.09
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           1.06e-09
+Time:                        19:07:32   Log-Likelihood:                -309.09
 No. Observations:                 537   AIC:                             640.2
 Df Residuals:                     526   BIC:                             687.3
 Df Model:                          10                                         
@@ -726,8 +726,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.110
 Model:                            OLS   Adj. R-squared:                  0.094
 Method:                 Least Squares   F-statistic:                     7.207
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           6.67e-10
-Time:                        21:22:28   Log-Likelihood:                -309.74
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           6.67e-10
+Time:                        19:07:32   Log-Likelihood:                -309.74
 No. Observations:                 537   AIC:                             639.5
 Df Residuals:                     527   BIC:                             682.3
 Df Model:                           9                                         
@@ -762,8 +762,8 @@
 Dep. Variable:               Desertor   R-squared:                       0.101
 Model:                            OLS   Adj. R-squared:                  0.089
 Method:                 Least Squares   F-statistic:                     8.487
-Date:                Sun, 05 Jan 2020   Prob (F-statistic):           7.28e-10
-Time:                        21:22:28   Log-Likelihood:                -312.33
+Date:                Wed, 08 Jan 2020   Prob (F-statistic):           7.28e-10
+Time:                        19:07:33   Log-Likelihood:                -312.33
 No. Observations:                 537   AIC:                             640.7
 Df Residuals:                     529   BIC:                             674.9
 Df Model:                           7                                         
